--- a/総合テスト/2. カート機能/ST-C-001_結果.xlsx
+++ b/総合テスト/2. カート機能/ST-C-001_結果.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Desktop\Cart総合結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF516BF4-83CF-437A-8524-D7D593E430B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767534E-ECFF-4DCE-A475-C885D1E94751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D79F4811-AACA-4039-B91F-FBD7AA8617A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST-C-001_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +466,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
